--- a/Code/Results/Cases/Case_1_122/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_122/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.31785756501662</v>
+        <v>15.46388812271717</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.591944140733562</v>
+        <v>9.053051090061398</v>
       </c>
       <c r="E2">
-        <v>10.05605031166832</v>
+        <v>13.49814074132279</v>
       </c>
       <c r="F2">
-        <v>34.94076780113596</v>
+        <v>34.16091268773715</v>
       </c>
       <c r="G2">
-        <v>2.018659076075655</v>
+        <v>3.623242451708317</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>69.43069910385765</v>
+        <v>42.00370031271751</v>
       </c>
       <c r="J2">
-        <v>6.505510476629641</v>
+        <v>9.848448925951388</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.34282081938648</v>
+        <v>25.54137488967322</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.68411345225605</v>
+        <v>14.62529716494162</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.509542254810848</v>
+        <v>9.062502353047922</v>
       </c>
       <c r="E3">
-        <v>9.685745810263862</v>
+        <v>13.47515106134687</v>
       </c>
       <c r="F3">
-        <v>32.91094010534459</v>
+        <v>33.77373060893175</v>
       </c>
       <c r="G3">
-        <v>2.028083600574576</v>
+        <v>3.626715730940678</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>64.78771038057241</v>
+        <v>39.58439637612544</v>
       </c>
       <c r="J3">
-        <v>6.347183537701379</v>
+        <v>9.851853114224063</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.90674037345187</v>
+        <v>25.2832732662348</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.62318182639429</v>
+        <v>14.08227189835594</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.461560319933985</v>
+        <v>9.06961810779516</v>
       </c>
       <c r="E4">
-        <v>9.459686194417195</v>
+        <v>13.46397592245685</v>
       </c>
       <c r="F4">
-        <v>31.6326495769742</v>
+        <v>33.54394766294402</v>
       </c>
       <c r="G4">
-        <v>2.03401344021896</v>
+        <v>3.628960586445301</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>61.7702325409574</v>
+        <v>38.02187358361297</v>
       </c>
       <c r="J4">
-        <v>6.253005771586769</v>
+        <v>9.855753084105856</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.00435661755815</v>
+        <v>25.13087928067921</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.17618423455038</v>
+        <v>13.85402509196118</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.442661042716776</v>
+        <v>9.072847943946</v>
       </c>
       <c r="E5">
-        <v>9.367989606335195</v>
+        <v>13.46016374882351</v>
       </c>
       <c r="F5">
-        <v>31.10412603552634</v>
+        <v>33.45241244229403</v>
       </c>
       <c r="G5">
-        <v>2.03646800963152</v>
+        <v>3.629903714509761</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>60.49838825984555</v>
+        <v>37.36626242888532</v>
       </c>
       <c r="J5">
-        <v>6.21540471861351</v>
+        <v>9.857797311550719</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.631762369762</v>
+        <v>25.07037136719887</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10107177556358</v>
+        <v>13.81570835831321</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.439562208516055</v>
+        <v>9.073404193405828</v>
       </c>
       <c r="E6">
-        <v>9.35279209856845</v>
+        <v>13.45957559886189</v>
       </c>
       <c r="F6">
-        <v>31.01592056669676</v>
+        <v>33.43734307526277</v>
       </c>
       <c r="G6">
-        <v>2.036877949835232</v>
+        <v>3.630062034442656</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>60.28464309963406</v>
+        <v>37.25627603765865</v>
       </c>
       <c r="J6">
-        <v>6.209208444451265</v>
+        <v>9.85816422533258</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.56961067760957</v>
+        <v>25.06042215919854</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.6172129738281</v>
+        <v>14.07922169308636</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.461302795450985</v>
+        <v>9.069660329893301</v>
       </c>
       <c r="E7">
-        <v>9.458447689027025</v>
+        <v>13.46392150404266</v>
       </c>
       <c r="F7">
-        <v>31.62555187361003</v>
+        <v>33.54270453687643</v>
       </c>
       <c r="G7">
-        <v>2.034046386399877</v>
+        <v>3.628973190948788</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>61.75325121813994</v>
+        <v>38.01310743513349</v>
       </c>
       <c r="J7">
-        <v>6.252495505254426</v>
+        <v>9.855778811462464</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.99935089068951</v>
+        <v>25.13005671365274</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.76646345961786</v>
+        <v>15.18063999774328</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.562987681448325</v>
+        <v>9.056037481920358</v>
       </c>
       <c r="E8">
-        <v>9.928151203337569</v>
+        <v>13.48960515884906</v>
       </c>
       <c r="F8">
-        <v>34.24773576282921</v>
+        <v>34.02582672660026</v>
       </c>
       <c r="G8">
-        <v>2.021880268192676</v>
+        <v>3.624416804934428</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>67.86420339647036</v>
+        <v>41.18578900812587</v>
       </c>
       <c r="J8">
-        <v>6.450297238287317</v>
+        <v>9.849247038929464</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.85210508620573</v>
+        <v>25.45115907982008</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.52843021190062</v>
+        <v>17.11354650569201</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.783284541258864</v>
+        <v>9.039735604397224</v>
       </c>
       <c r="E9">
-        <v>10.85613478473568</v>
+        <v>13.56317490237894</v>
       </c>
       <c r="F9">
-        <v>39.12388785238258</v>
+        <v>35.03149178840476</v>
       </c>
       <c r="G9">
-        <v>1.999053524485955</v>
+        <v>3.616367576086778</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>78.54004445610417</v>
+        <v>46.77879708202151</v>
       </c>
       <c r="J9">
-        <v>6.86177730005797</v>
+        <v>9.850798242082389</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>28.3122953949093</v>
+        <v>26.1260939801174</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.02515941378262</v>
+        <v>18.39153772040988</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.958160215963515</v>
+        <v>9.034100795024692</v>
       </c>
       <c r="E10">
-        <v>11.53867178038662</v>
+        <v>13.63116400232306</v>
       </c>
       <c r="F10">
-        <v>42.56026200681371</v>
+        <v>35.79921196626681</v>
       </c>
       <c r="G10">
-        <v>1.982749165550266</v>
+        <v>3.610987116409541</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>85.60880529061011</v>
+        <v>50.48748964831373</v>
       </c>
       <c r="J10">
-        <v>7.17811146329449</v>
+        <v>9.86068428796484</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>30.97798833172132</v>
+        <v>26.64535503308267</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.10503410527766</v>
+        <v>18.94157951104755</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.040636439145172</v>
+        <v>9.032912160003942</v>
       </c>
       <c r="E11">
-        <v>11.84899245098897</v>
+        <v>13.66506339699835</v>
       </c>
       <c r="F11">
-        <v>44.17441385587455</v>
+        <v>36.15327824047178</v>
       </c>
       <c r="G11">
-        <v>1.975391994160349</v>
+        <v>3.608653775659024</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>88.66174843512333</v>
+        <v>52.08534703260537</v>
       </c>
       <c r="J11">
-        <v>7.325103906664331</v>
+        <v>9.867075651012993</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>32.19051817899653</v>
+        <v>26.88572683328339</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.50609682796122</v>
+        <v>19.14533481163442</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.072299201332813</v>
+        <v>9.032659395608954</v>
       </c>
       <c r="E12">
-        <v>11.96647735291014</v>
+        <v>13.67832158929037</v>
       </c>
       <c r="F12">
-        <v>44.77886327777883</v>
+        <v>36.28792533965255</v>
       </c>
       <c r="G12">
-        <v>1.972610704587438</v>
+        <v>3.607786520170254</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>89.79490566287627</v>
+        <v>52.67744494454099</v>
       </c>
       <c r="J12">
-        <v>7.38122363305016</v>
+        <v>9.869767470888318</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>32.64403066042652</v>
+        <v>26.97726771910306</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.42006755568606</v>
+        <v>19.10165446781605</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.065460696637758</v>
+        <v>9.032705061912115</v>
       </c>
       <c r="E13">
-        <v>11.94117585996858</v>
+        <v>13.67544756740442</v>
       </c>
       <c r="F13">
-        <v>44.64898053517213</v>
+        <v>36.25890330013022</v>
       </c>
       <c r="G13">
-        <v>1.973209562596142</v>
+        <v>3.607972574463442</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>89.55187185858696</v>
+        <v>52.55050504930303</v>
       </c>
       <c r="J13">
-        <v>7.369116621920877</v>
+        <v>9.869175677268064</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>32.54660438422949</v>
+        <v>26.95753102762593</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.13818630349799</v>
+        <v>18.95843357864365</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.043232648078805</v>
+        <v>9.032887411950966</v>
       </c>
       <c r="E14">
-        <v>11.85865847319026</v>
+        <v>13.66614575069779</v>
       </c>
       <c r="F14">
-        <v>44.22427633958406</v>
+        <v>36.16434502539727</v>
       </c>
       <c r="G14">
-        <v>1.975163105347373</v>
+        <v>3.608582099321983</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>88.7554306517542</v>
+        <v>52.13432002565632</v>
       </c>
       <c r="J14">
-        <v>7.329711647399822</v>
+        <v>9.867291671810763</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>32.22794016964598</v>
+        <v>26.89324805125582</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.96450739298541</v>
+        <v>18.87011552320599</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.029673795463401</v>
+        <v>9.033024795924055</v>
       </c>
       <c r="E15">
-        <v>11.80811102267505</v>
+        <v>13.66050278847509</v>
       </c>
       <c r="F15">
-        <v>43.96325868453153</v>
+        <v>36.10649589555697</v>
       </c>
       <c r="G15">
-        <v>1.97636019675451</v>
+        <v>3.608957574585209</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>88.2646161388754</v>
+        <v>51.87770123785431</v>
       </c>
       <c r="J15">
-        <v>7.305634998338668</v>
+        <v>9.866173000034886</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>32.03202365751717</v>
+        <v>26.85393784757937</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.95347700689895</v>
+        <v>18.3549581758265</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.952829848734428</v>
+        <v>9.034206110330461</v>
       </c>
       <c r="E16">
-        <v>11.51838745774568</v>
+        <v>13.62900788030495</v>
       </c>
       <c r="F16">
-        <v>42.45380350123707</v>
+        <v>35.7761593962845</v>
       </c>
       <c r="G16">
-        <v>1.983230855533019</v>
+        <v>3.611141896300692</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>85.40605400812082</v>
+        <v>50.38125698588405</v>
       </c>
       <c r="J16">
-        <v>7.168568199027782</v>
+        <v>9.8603046461317</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>30.89793902842201</v>
+        <v>26.62972294951099</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.3190470982685</v>
+        <v>18.03087938850338</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.906443860560274</v>
+        <v>9.035282680972486</v>
       </c>
       <c r="E17">
-        <v>11.34059919135286</v>
+        <v>13.61044360731533</v>
       </c>
       <c r="F17">
-        <v>41.55801237907852</v>
+        <v>35.57465633020601</v>
       </c>
       <c r="G17">
-        <v>1.987458473638655</v>
+        <v>3.612511099626303</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>83.61107613539434</v>
+        <v>49.44026495104949</v>
       </c>
       <c r="J17">
-        <v>7.085279630416129</v>
+        <v>9.857189210147087</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>30.19182198273188</v>
+        <v>26.49318197498308</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.94886706821208</v>
+        <v>17.84153069387959</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.880038333278676</v>
+        <v>9.036031310258103</v>
       </c>
       <c r="E18">
-        <v>11.23832296704868</v>
+        <v>13.60004595055646</v>
       </c>
       <c r="F18">
-        <v>41.04918656822796</v>
+        <v>35.45921881065992</v>
       </c>
       <c r="G18">
-        <v>1.989895971672591</v>
+        <v>3.613309389561931</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>82.56331114050316</v>
+        <v>48.89063678530206</v>
       </c>
       <c r="J18">
-        <v>7.037663861899182</v>
+        <v>9.855575641806848</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>29.78177060295232</v>
+        <v>26.41504338001178</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.82261968951624</v>
+        <v>17.77691535278072</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.871144756356741</v>
+        <v>9.036307019224486</v>
       </c>
       <c r="E19">
-        <v>11.2036915052694</v>
+        <v>13.59657374906437</v>
       </c>
       <c r="F19">
-        <v>40.8763154778205</v>
+        <v>35.42021674247732</v>
       </c>
       <c r="G19">
-        <v>1.990722387846662</v>
+        <v>3.613581527980174</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>82.20590737232402</v>
+        <v>48.7031053676155</v>
       </c>
       <c r="J19">
-        <v>7.02159149512027</v>
+        <v>9.855059968827746</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>29.64225434601354</v>
+        <v>26.3886574843856</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.38712771213823</v>
+        <v>18.06568338928438</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.911353258378711</v>
+        <v>9.035154686480276</v>
       </c>
       <c r="E20">
-        <v>11.35952691864269</v>
+        <v>13.61239086607596</v>
       </c>
       <c r="F20">
-        <v>41.65190454903217</v>
+        <v>35.59605979171533</v>
       </c>
       <c r="G20">
-        <v>1.987007854120676</v>
+        <v>3.61236423266498</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>83.80373907579248</v>
+        <v>49.54130510666898</v>
       </c>
       <c r="J20">
-        <v>7.094115806841105</v>
+        <v>9.857502400698968</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>30.26739221130735</v>
+        <v>26.50767657635921</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.22119358573332</v>
+        <v>19.00062425561376</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.049749773184692</v>
+        <v>9.032828498380381</v>
       </c>
       <c r="E21">
-        <v>11.8828964617088</v>
+        <v>13.66886653821914</v>
       </c>
       <c r="F21">
-        <v>44.34920372612575</v>
+        <v>36.19210460187975</v>
       </c>
       <c r="G21">
-        <v>1.974589207987985</v>
+        <v>3.608402624698795</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>88.98998307435141</v>
+        <v>52.25691677039583</v>
       </c>
       <c r="J21">
-        <v>7.341273295901976</v>
+        <v>9.867837687640529</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>32.32169014864983</v>
+        <v>26.91211612260957</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.37412346042078</v>
+        <v>19.58522931221873</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.142718480573711</v>
+        <v>9.032458281489077</v>
       </c>
       <c r="E22">
-        <v>12.22480831633344</v>
+        <v>13.70822871588955</v>
       </c>
       <c r="F22">
-        <v>46.09629885231928</v>
+        <v>36.58491920749592</v>
       </c>
       <c r="G22">
-        <v>1.966498197709337</v>
+        <v>3.605908622599556</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>92.24610226002383</v>
+        <v>53.9560509119212</v>
       </c>
       <c r="J22">
-        <v>7.505481212838329</v>
+        <v>9.876174675601838</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>33.6315632298137</v>
+        <v>27.17941864542292</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.76290705893638</v>
+        <v>19.27564066207565</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.092864511710773</v>
+        <v>9.032550767287978</v>
       </c>
       <c r="E23">
-        <v>12.04233105620553</v>
+        <v>13.68699813834026</v>
       </c>
       <c r="F23">
-        <v>45.16731869163903</v>
+        <v>36.37500870070366</v>
       </c>
       <c r="G23">
-        <v>1.970815622323557</v>
+        <v>3.607231046283911</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>90.52029302560385</v>
+        <v>53.05615300520156</v>
       </c>
       <c r="J23">
-        <v>7.417588721244289</v>
+        <v>9.871580611595775</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>32.93534017295781</v>
+        <v>27.0365083911838</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.35636541739263</v>
+        <v>18.04995794057753</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.909132903045284</v>
+        <v>9.035212148792816</v>
       </c>
       <c r="E24">
-        <v>11.3509698900488</v>
+        <v>13.61150965277894</v>
       </c>
       <c r="F24">
-        <v>41.60946727808899</v>
+        <v>35.58638200238035</v>
       </c>
       <c r="G24">
-        <v>1.987211557164184</v>
+        <v>3.612430596583006</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>83.71668543464122</v>
+        <v>49.49565175058866</v>
       </c>
       <c r="J24">
-        <v>7.090120137712938</v>
+        <v>9.85736025418872</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>30.2332396885701</v>
+        <v>26.50112243756142</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.55830670834304</v>
+        <v>16.61539234780995</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.721425641350287</v>
+        <v>9.043031288582753</v>
       </c>
       <c r="E25">
-        <v>10.60477481626616</v>
+        <v>13.54080724258617</v>
       </c>
       <c r="F25">
-        <v>37.83445787832179</v>
+        <v>34.75387368245401</v>
       </c>
       <c r="G25">
-        <v>2.005134106320839</v>
+        <v>3.618450967720129</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>75.78973891881813</v>
+        <v>45.33509062920486</v>
       </c>
       <c r="J25">
-        <v>6.747989500648899</v>
+        <v>9.848841359131361</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.39571020213854</v>
+        <v>25.93908695842768</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_122/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_122/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.46388812271717</v>
+        <v>24.31785756501655</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.053051090061398</v>
+        <v>5.591944140733419</v>
       </c>
       <c r="E2">
-        <v>13.49814074132279</v>
+        <v>10.05605031166838</v>
       </c>
       <c r="F2">
-        <v>34.16091268773715</v>
+        <v>34.94076780113592</v>
       </c>
       <c r="G2">
-        <v>3.623242451708317</v>
+        <v>2.018659076075521</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>42.00370031271751</v>
+        <v>69.43069910385718</v>
       </c>
       <c r="J2">
-        <v>9.848448925951388</v>
+        <v>6.505510476629703</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.54137488967322</v>
+        <v>25.34282081938645</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.62529716494162</v>
+        <v>22.68411345225612</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.062502353047922</v>
+        <v>5.509542254810794</v>
       </c>
       <c r="E3">
-        <v>13.47515106134687</v>
+        <v>9.685745810263839</v>
       </c>
       <c r="F3">
-        <v>33.77373060893175</v>
+        <v>32.91094010534452</v>
       </c>
       <c r="G3">
-        <v>3.626715730940678</v>
+        <v>2.028083600574841</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>39.58439637612544</v>
+        <v>64.78771038057258</v>
       </c>
       <c r="J3">
-        <v>9.851853114224063</v>
+        <v>6.347183537701406</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.2832732662348</v>
+        <v>23.90674037345181</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.08227189835594</v>
+        <v>21.62318182639427</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.06961810779516</v>
+        <v>5.461560319933934</v>
       </c>
       <c r="E4">
-        <v>13.46397592245685</v>
+        <v>9.459686194417161</v>
       </c>
       <c r="F4">
-        <v>33.54394766294402</v>
+        <v>31.63264957697412</v>
       </c>
       <c r="G4">
-        <v>3.628960586445301</v>
+        <v>2.03401344021883</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>38.02187358361297</v>
+        <v>61.77023254095738</v>
       </c>
       <c r="J4">
-        <v>9.855753084105856</v>
+        <v>6.253005771586789</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.13087928067921</v>
+        <v>23.00435661755813</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.85402509196118</v>
+        <v>21.17618423455042</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.072847943946</v>
+        <v>5.442661042716775</v>
       </c>
       <c r="E5">
-        <v>13.46016374882351</v>
+        <v>9.367989606335154</v>
       </c>
       <c r="F5">
-        <v>33.45241244229403</v>
+        <v>31.10412603552636</v>
       </c>
       <c r="G5">
-        <v>3.629903714509761</v>
+        <v>2.036468009631654</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>37.36626242888532</v>
+        <v>60.4983882598456</v>
       </c>
       <c r="J5">
-        <v>9.857797311550719</v>
+        <v>6.215404718613492</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.07037136719887</v>
+        <v>22.63176236976201</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.81570835831321</v>
+        <v>21.10107177556363</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.073404193405828</v>
+        <v>5.439562208516101</v>
       </c>
       <c r="E6">
-        <v>13.45957559886189</v>
+        <v>9.352792098568376</v>
       </c>
       <c r="F6">
-        <v>33.43734307526277</v>
+        <v>31.01592056669675</v>
       </c>
       <c r="G6">
-        <v>3.630062034442656</v>
+        <v>2.036877949835234</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>37.25627603765865</v>
+        <v>60.2846430996342</v>
       </c>
       <c r="J6">
-        <v>9.85816422533258</v>
+        <v>6.209208444451158</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.06042215919854</v>
+        <v>22.56961067760955</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.07922169308636</v>
+        <v>21.61721297382809</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.069660329893301</v>
+        <v>5.461302795451072</v>
       </c>
       <c r="E7">
-        <v>13.46392150404266</v>
+        <v>9.458447689027077</v>
       </c>
       <c r="F7">
-        <v>33.54270453687643</v>
+        <v>31.62555187361003</v>
       </c>
       <c r="G7">
-        <v>3.628973190948788</v>
+        <v>2.034046386400146</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>38.01310743513349</v>
+        <v>61.75325121813999</v>
       </c>
       <c r="J7">
-        <v>9.855778811462464</v>
+        <v>6.252495505254465</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.13005671365274</v>
+        <v>22.99935089068951</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.18063999774328</v>
+        <v>23.7664634596178</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.056037481920358</v>
+        <v>5.56298768144844</v>
       </c>
       <c r="E8">
-        <v>13.48960515884906</v>
+        <v>9.928151203337594</v>
       </c>
       <c r="F8">
-        <v>34.02582672660026</v>
+        <v>34.24773576282923</v>
       </c>
       <c r="G8">
-        <v>3.624416804934428</v>
+        <v>2.021880268192545</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>41.18578900812587</v>
+        <v>67.86420339647047</v>
       </c>
       <c r="J8">
-        <v>9.849247038929464</v>
+        <v>6.450297238287344</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.45115907982008</v>
+        <v>24.85210508620573</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.11354650569201</v>
+        <v>27.52843021190057</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.039735604397224</v>
+        <v>5.783284541258827</v>
       </c>
       <c r="E9">
-        <v>13.56317490237894</v>
+        <v>10.85613478473568</v>
       </c>
       <c r="F9">
-        <v>35.03149178840476</v>
+        <v>39.12388785238253</v>
       </c>
       <c r="G9">
-        <v>3.616367576086778</v>
+        <v>1.999053524485951</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>46.77879708202151</v>
+        <v>78.54004445610404</v>
       </c>
       <c r="J9">
-        <v>9.850798242082389</v>
+        <v>6.861777300058</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.1260939801174</v>
+        <v>28.31229539490926</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.39153772040988</v>
+        <v>30.02515941378262</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.034100795024692</v>
+        <v>5.958160215963445</v>
       </c>
       <c r="E10">
-        <v>13.63116400232306</v>
+        <v>11.53867178038662</v>
       </c>
       <c r="F10">
-        <v>35.79921196626681</v>
+        <v>42.56026200681368</v>
       </c>
       <c r="G10">
-        <v>3.610987116409541</v>
+        <v>1.982749165550131</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>50.48748964831373</v>
+        <v>85.60880529061041</v>
       </c>
       <c r="J10">
-        <v>9.86068428796484</v>
+        <v>7.178111463294504</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.64535503308267</v>
+        <v>30.97798833172127</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.94157951104755</v>
+        <v>31.10503410527772</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.032912160003942</v>
+        <v>6.040636439145238</v>
       </c>
       <c r="E11">
-        <v>13.66506339699835</v>
+        <v>11.848992450989</v>
       </c>
       <c r="F11">
-        <v>36.15327824047178</v>
+        <v>44.17441385587455</v>
       </c>
       <c r="G11">
-        <v>3.608653775659024</v>
+        <v>1.975391994160089</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>52.08534703260537</v>
+        <v>88.66174843512337</v>
       </c>
       <c r="J11">
-        <v>9.867075651012993</v>
+        <v>7.32510390666434</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.88572683328339</v>
+        <v>32.19051817899651</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.14533481163442</v>
+        <v>31.50609682796114</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.032659395608954</v>
+        <v>6.072299201332851</v>
       </c>
       <c r="E12">
-        <v>13.67832158929037</v>
+        <v>11.96647735291013</v>
       </c>
       <c r="F12">
-        <v>36.28792533965255</v>
+        <v>44.77886327777881</v>
       </c>
       <c r="G12">
-        <v>3.607786520170254</v>
+        <v>1.972610704587438</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>52.67744494454099</v>
+        <v>89.79490566287602</v>
       </c>
       <c r="J12">
-        <v>9.869767470888318</v>
+        <v>7.381223633050143</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.97726771910306</v>
+        <v>32.6440306604265</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.10165446781605</v>
+        <v>31.42006755568609</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.032705061912115</v>
+        <v>6.065460696637771</v>
       </c>
       <c r="E13">
-        <v>13.67544756740442</v>
+        <v>11.94117585996858</v>
       </c>
       <c r="F13">
-        <v>36.25890330013022</v>
+        <v>44.64898053517218</v>
       </c>
       <c r="G13">
-        <v>3.607972574463442</v>
+        <v>1.973209562596271</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>52.55050504930303</v>
+        <v>89.55187185858716</v>
       </c>
       <c r="J13">
-        <v>9.869175677268064</v>
+        <v>7.369116621920877</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.95753102762593</v>
+        <v>32.54660438422953</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.95843357864365</v>
+        <v>31.13818630349806</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.032887411950966</v>
+        <v>6.043232648078791</v>
       </c>
       <c r="E14">
-        <v>13.66614575069779</v>
+        <v>11.85865847319023</v>
       </c>
       <c r="F14">
-        <v>36.16434502539727</v>
+        <v>44.22427633958398</v>
       </c>
       <c r="G14">
-        <v>3.608582099321983</v>
+        <v>1.975163105347242</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>52.13432002565632</v>
+        <v>88.75543065175448</v>
       </c>
       <c r="J14">
-        <v>9.867291671810763</v>
+        <v>7.329711647399807</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.89324805125582</v>
+        <v>32.2279401696459</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.87011552320599</v>
+        <v>30.96450739298542</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.033024795924055</v>
+        <v>6.029673795463409</v>
       </c>
       <c r="E15">
-        <v>13.66050278847509</v>
+        <v>11.80811102267504</v>
       </c>
       <c r="F15">
-        <v>36.10649589555697</v>
+        <v>43.96325868453144</v>
       </c>
       <c r="G15">
-        <v>3.608957574585209</v>
+        <v>1.976360196754371</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>51.87770123785431</v>
+        <v>88.26461613887517</v>
       </c>
       <c r="J15">
-        <v>9.866173000034886</v>
+        <v>7.305634998338663</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.85393784757937</v>
+        <v>32.03202365751711</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.3549581758265</v>
+        <v>29.95347700689881</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.034206110330461</v>
+        <v>5.952829848734422</v>
       </c>
       <c r="E16">
-        <v>13.62900788030495</v>
+        <v>11.51838745774569</v>
       </c>
       <c r="F16">
-        <v>35.7761593962845</v>
+        <v>42.45380350123706</v>
       </c>
       <c r="G16">
-        <v>3.611141896300692</v>
+        <v>1.983230855533017</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>50.38125698588405</v>
+        <v>85.40605400812015</v>
       </c>
       <c r="J16">
-        <v>9.8603046461317</v>
+        <v>7.168568199027789</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.62972294951099</v>
+        <v>30.89793902842199</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.03087938850338</v>
+        <v>29.3190470982685</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.035282680972486</v>
+        <v>5.90644386056023</v>
       </c>
       <c r="E17">
-        <v>13.61044360731533</v>
+        <v>11.34059919135278</v>
       </c>
       <c r="F17">
-        <v>35.57465633020601</v>
+        <v>41.55801237907851</v>
       </c>
       <c r="G17">
-        <v>3.612511099626303</v>
+        <v>1.987458473638516</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>49.44026495104949</v>
+        <v>83.61107613539423</v>
       </c>
       <c r="J17">
-        <v>9.857189210147087</v>
+        <v>7.085279630416095</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.49318197498308</v>
+        <v>30.1918219827319</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.84153069387959</v>
+        <v>28.94886706821207</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.036031310258103</v>
+        <v>5.880038333278735</v>
       </c>
       <c r="E18">
-        <v>13.60004595055646</v>
+        <v>11.23832296704867</v>
       </c>
       <c r="F18">
-        <v>35.45921881065992</v>
+        <v>41.04918656822797</v>
       </c>
       <c r="G18">
-        <v>3.613309389561931</v>
+        <v>1.989895971672587</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>48.89063678530206</v>
+        <v>82.56331114050353</v>
       </c>
       <c r="J18">
-        <v>9.855575641806848</v>
+        <v>7.037663861899178</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.41504338001178</v>
+        <v>29.78177060295233</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.77691535278072</v>
+        <v>28.8226196895163</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.036307019224486</v>
+        <v>5.871144756356775</v>
       </c>
       <c r="E19">
-        <v>13.59657374906437</v>
+        <v>11.20369150526935</v>
       </c>
       <c r="F19">
-        <v>35.42021674247732</v>
+        <v>40.87631547782048</v>
       </c>
       <c r="G19">
-        <v>3.613581527980174</v>
+        <v>1.990722387846795</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>48.7031053676155</v>
+        <v>82.20590737232418</v>
       </c>
       <c r="J19">
-        <v>9.855059968827746</v>
+        <v>7.021591495120198</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.3886574843856</v>
+        <v>29.64225434601351</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.06568338928438</v>
+        <v>29.38712771213811</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.035154686480276</v>
+        <v>5.911353258378625</v>
       </c>
       <c r="E20">
-        <v>13.61239086607596</v>
+        <v>11.3595269186427</v>
       </c>
       <c r="F20">
-        <v>35.59605979171533</v>
+        <v>41.65190454903219</v>
       </c>
       <c r="G20">
-        <v>3.61236423266498</v>
+        <v>1.987007854120673</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>49.54130510666898</v>
+        <v>83.80373907579211</v>
       </c>
       <c r="J20">
-        <v>9.857502400698968</v>
+        <v>7.094115806841128</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.50767657635921</v>
+        <v>30.2673922113074</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.00062425561376</v>
+        <v>31.22119358573325</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.032828498380381</v>
+        <v>6.049749773184647</v>
       </c>
       <c r="E21">
-        <v>13.66886653821914</v>
+        <v>11.88289646170879</v>
       </c>
       <c r="F21">
-        <v>36.19210460187975</v>
+        <v>44.34920372612574</v>
       </c>
       <c r="G21">
-        <v>3.608402624698795</v>
+        <v>1.974589207987854</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>52.25691677039583</v>
+        <v>88.98998307435136</v>
       </c>
       <c r="J21">
-        <v>9.867837687640529</v>
+        <v>7.341273295901973</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.91211612260957</v>
+        <v>32.32169014864982</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.58522931221873</v>
+        <v>32.3741234604208</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.032458281489077</v>
+        <v>6.142718480573712</v>
       </c>
       <c r="E22">
-        <v>13.70822871588955</v>
+        <v>12.22480831633344</v>
       </c>
       <c r="F22">
-        <v>36.58491920749592</v>
+        <v>46.09629885231931</v>
       </c>
       <c r="G22">
-        <v>3.605908622599556</v>
+        <v>1.96649819770934</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>53.9560509119212</v>
+        <v>92.24610226002383</v>
       </c>
       <c r="J22">
-        <v>9.876174675601838</v>
+        <v>7.505481212838318</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.17941864542292</v>
+        <v>33.63156322981374</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.27564066207565</v>
+        <v>31.76290705893634</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.032550767287978</v>
+        <v>6.092864511710752</v>
       </c>
       <c r="E23">
-        <v>13.68699813834026</v>
+        <v>12.04233105620551</v>
       </c>
       <c r="F23">
-        <v>36.37500870070366</v>
+        <v>45.16731869163901</v>
       </c>
       <c r="G23">
-        <v>3.607231046283911</v>
+        <v>1.970815622323557</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>53.05615300520156</v>
+        <v>90.52029302560393</v>
       </c>
       <c r="J23">
-        <v>9.871580611595775</v>
+        <v>7.417588721244263</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.0365083911838</v>
+        <v>32.93534017295777</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.04995794057753</v>
+        <v>29.35636541739257</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.035212148792816</v>
+        <v>5.909132903045245</v>
       </c>
       <c r="E24">
-        <v>13.61150965277894</v>
+        <v>11.35096989004879</v>
       </c>
       <c r="F24">
-        <v>35.58638200238035</v>
+        <v>41.60946727808903</v>
       </c>
       <c r="G24">
-        <v>3.612430596583006</v>
+        <v>1.987211557164181</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>49.49565175058866</v>
+        <v>83.71668543464092</v>
       </c>
       <c r="J24">
-        <v>9.85736025418872</v>
+        <v>7.090120137712939</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.50112243756142</v>
+        <v>30.23323968857018</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.61539234780995</v>
+        <v>26.55830670834304</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.043031288582753</v>
+        <v>5.721425641350461</v>
       </c>
       <c r="E25">
-        <v>13.54080724258617</v>
+        <v>10.60477481626622</v>
       </c>
       <c r="F25">
-        <v>34.75387368245401</v>
+        <v>37.8344578783218</v>
       </c>
       <c r="G25">
-        <v>3.618450967720129</v>
+        <v>2.005134106320972</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>45.33509062920486</v>
+        <v>75.78973891881814</v>
       </c>
       <c r="J25">
-        <v>9.848841359131361</v>
+        <v>6.747989500648892</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.93908695842768</v>
+        <v>27.39571020213854</v>
       </c>
     </row>
   </sheetData>
